--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H2">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N2">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q2">
-        <v>28.12779617268213</v>
+        <v>29.47901915188977</v>
       </c>
       <c r="R2">
-        <v>28.12779617268213</v>
+        <v>265.3111723670079</v>
       </c>
       <c r="S2">
-        <v>0.01005324618181828</v>
+        <v>0.0091330143294657</v>
       </c>
       <c r="T2">
-        <v>0.01005324618181828</v>
+        <v>0.009133014329465698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H3">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q3">
-        <v>39.75866989068406</v>
+        <v>40.56199777465066</v>
       </c>
       <c r="R3">
-        <v>39.75866989068406</v>
+        <v>365.0579799718559</v>
       </c>
       <c r="S3">
-        <v>0.01421027420061041</v>
+        <v>0.01256667682865873</v>
       </c>
       <c r="T3">
-        <v>0.01421027420061041</v>
+        <v>0.01256667682865873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H4">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N4">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q4">
-        <v>104.5642284172014</v>
+        <v>107.0969556807485</v>
       </c>
       <c r="R4">
-        <v>104.5642284172014</v>
+        <v>963.872601126736</v>
       </c>
       <c r="S4">
-        <v>0.03737263750193646</v>
+        <v>0.0331801416402189</v>
       </c>
       <c r="T4">
-        <v>0.03737263750193646</v>
+        <v>0.0331801416402189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H5">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N5">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q5">
-        <v>140.001463094622</v>
+        <v>169.864189228496</v>
       </c>
       <c r="R5">
-        <v>140.001463094622</v>
+        <v>1528.777703056464</v>
       </c>
       <c r="S5">
-        <v>0.05003837363098939</v>
+        <v>0.0526263125069911</v>
       </c>
       <c r="T5">
-        <v>0.05003837363098939</v>
+        <v>0.0526263125069911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H6">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N6">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q6">
-        <v>13.73340014599882</v>
+        <v>14.48436760183466</v>
       </c>
       <c r="R6">
-        <v>13.73340014599882</v>
+        <v>130.359308416512</v>
       </c>
       <c r="S6">
-        <v>0.004908498758080272</v>
+        <v>0.004487460596270362</v>
       </c>
       <c r="T6">
-        <v>0.004908498758080272</v>
+        <v>0.004487460596270362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H7">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N7">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q7">
-        <v>149.3445629153827</v>
+        <v>155.5924614596231</v>
       </c>
       <c r="R7">
-        <v>149.3445629153827</v>
+        <v>1400.332153136608</v>
       </c>
       <c r="S7">
-        <v>0.05337772101614405</v>
+        <v>0.04820473071867729</v>
       </c>
       <c r="T7">
-        <v>0.05337772101614405</v>
+        <v>0.04820473071867729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H8">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q8">
-        <v>211.0986989690988</v>
+        <v>214.0892491354506</v>
       </c>
       <c r="R8">
-        <v>211.0986989690988</v>
+        <v>1926.803242219056</v>
       </c>
       <c r="S8">
-        <v>0.07544946558802992</v>
+        <v>0.06632785745224762</v>
       </c>
       <c r="T8">
-        <v>0.07544946558802992</v>
+        <v>0.06632785745224762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H9">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N9">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q9">
-        <v>555.1838790952852</v>
+        <v>565.2657187588818</v>
       </c>
       <c r="R9">
-        <v>555.1838790952852</v>
+        <v>5087.391468829936</v>
       </c>
       <c r="S9">
-        <v>0.1984300575294422</v>
+        <v>0.1751272619614837</v>
       </c>
       <c r="T9">
-        <v>0.1984300575294422</v>
+        <v>0.1751272619614837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H10">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N10">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q10">
-        <v>743.3379133231491</v>
+        <v>896.555858243696</v>
       </c>
       <c r="R10">
-        <v>743.3379133231491</v>
+        <v>8069.002724193264</v>
       </c>
       <c r="S10">
-        <v>0.2656787966266088</v>
+        <v>0.2777656019800502</v>
       </c>
       <c r="T10">
-        <v>0.2656787966266088</v>
+        <v>0.2777656019800502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H11">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N11">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q11">
-        <v>72.91750230109376</v>
+        <v>76.44957236343465</v>
       </c>
       <c r="R11">
-        <v>72.91750230109376</v>
+        <v>688.046151270912</v>
       </c>
       <c r="S11">
-        <v>0.02606167924055658</v>
+        <v>0.02368515167615453</v>
       </c>
       <c r="T11">
-        <v>0.02606167924055658</v>
+        <v>0.02368515167615453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H12">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N12">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q12">
-        <v>63.79599795078526</v>
+        <v>78.14907483510267</v>
       </c>
       <c r="R12">
-        <v>63.79599795078526</v>
+        <v>703.341673515924</v>
       </c>
       <c r="S12">
-        <v>0.02280153300587795</v>
+        <v>0.02421168142080892</v>
       </c>
       <c r="T12">
-        <v>0.02280153300587795</v>
+        <v>0.02421168142080892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H13">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q13">
-        <v>90.17571114709071</v>
+        <v>107.530124500402</v>
       </c>
       <c r="R13">
-        <v>90.17571114709071</v>
+        <v>967.7711205036179</v>
       </c>
       <c r="S13">
-        <v>0.03222999122351053</v>
+        <v>0.03331434342680447</v>
       </c>
       <c r="T13">
-        <v>0.03222999122351053</v>
+        <v>0.03331434342680446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H14">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N14">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q14">
-        <v>237.1596857740288</v>
+        <v>283.9147381730287</v>
       </c>
       <c r="R14">
-        <v>237.1596857740288</v>
+        <v>2555.232643557258</v>
       </c>
       <c r="S14">
-        <v>0.08476400678004595</v>
+        <v>0.08796077504208777</v>
       </c>
       <c r="T14">
-        <v>0.08476400678004595</v>
+        <v>0.08796077504208775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H15">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N15">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q15">
-        <v>317.5340505832374</v>
+        <v>450.3110896405381</v>
       </c>
       <c r="R15">
-        <v>317.5340505832374</v>
+        <v>4052.799806764842</v>
       </c>
       <c r="S15">
-        <v>0.1134908672554857</v>
+        <v>0.1395127026857235</v>
       </c>
       <c r="T15">
-        <v>0.1134908672554857</v>
+        <v>0.1395127026857235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H16">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N16">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O16">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P16">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q16">
-        <v>31.14840431126141</v>
+        <v>38.398154355904</v>
       </c>
       <c r="R16">
-        <v>31.14840431126141</v>
+        <v>345.583389203136</v>
       </c>
       <c r="S16">
-        <v>0.01113285146086371</v>
+        <v>0.01189628773435719</v>
       </c>
       <c r="T16">
-        <v>0.01113285146086371</v>
+        <v>0.01189628773435719</v>
       </c>
     </row>
   </sheetData>
